--- a/data/outputs/OR_elsevier/25.xlsx
+++ b/data/outputs/OR_elsevier/25.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BS82"/>
+  <dimension ref="A1:BU82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -722,6 +722,16 @@
           <t>eid</t>
         </is>
       </c>
+      <c r="BT1" s="1" t="inlineStr">
+        <is>
+          <t>views</t>
+        </is>
+      </c>
+      <c r="BU1" s="1" t="inlineStr">
+        <is>
+          <t>citations</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -941,6 +951,12 @@
           <t>2-s2.0-84929398892</t>
         </is>
       </c>
+      <c r="BT2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU2" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1164,6 +1180,12 @@
           <t>2-s2.0-84929411013</t>
         </is>
       </c>
+      <c r="BT3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU3" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1391,6 +1413,12 @@
           <t>2-s2.0-84929395152</t>
         </is>
       </c>
+      <c r="BT4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU4" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1618,6 +1646,12 @@
           <t>2-s2.0-84929405062</t>
         </is>
       </c>
+      <c r="BT5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU5" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1845,6 +1879,12 @@
           <t>2-s2.0-84929396711</t>
         </is>
       </c>
+      <c r="BT6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU6" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2072,6 +2112,12 @@
           <t>2-s2.0-84929400564</t>
         </is>
       </c>
+      <c r="BT7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU7" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2291,6 +2337,12 @@
           <t>2-s2.0-84929397497</t>
         </is>
       </c>
+      <c r="BT8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU8" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2506,6 +2558,12 @@
           <t>2-s2.0-84929397702</t>
         </is>
       </c>
+      <c r="BT9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU9" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2724,6 +2782,12 @@
         <is>
           <t>2-s2.0-84929411944</t>
         </is>
+      </c>
+      <c r="BT10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU10" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="11">
@@ -2936,6 +3000,12 @@
           <t>2-s2.0-84929417077</t>
         </is>
       </c>
+      <c r="BT11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU11" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3147,6 +3217,12 @@
           <t>2-s2.0-84929440527</t>
         </is>
       </c>
+      <c r="BT12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU12" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3362,6 +3438,12 @@
           <t>2-s2.0-84929416857</t>
         </is>
       </c>
+      <c r="BT13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU13" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3581,6 +3663,12 @@
           <t>2-s2.0-84929393511</t>
         </is>
       </c>
+      <c r="BT14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU14" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -3803,6 +3891,12 @@
         <is>
           <t>2-s2.0-84929410108</t>
         </is>
+      </c>
+      <c r="BT15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU15" t="n">
+        <v>28</v>
       </c>
     </row>
     <row r="16">
@@ -4015,6 +4109,12 @@
           <t>2-s2.0-84929397160</t>
         </is>
       </c>
+      <c r="BT16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU16" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4233,6 +4333,12 @@
         <is>
           <t>2-s2.0-84929412055</t>
         </is>
+      </c>
+      <c r="BT17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU17" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="18">
@@ -4437,6 +4543,12 @@
           <t>2-s2.0-84929415439</t>
         </is>
       </c>
+      <c r="BT18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU18" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -4655,6 +4767,12 @@
         <is>
           <t>2-s2.0-84929439500</t>
         </is>
+      </c>
+      <c r="BT19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU19" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="20">
@@ -4867,6 +4985,12 @@
           <t>2-s2.0-84929392307</t>
         </is>
       </c>
+      <c r="BT20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU20" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -5094,6 +5218,12 @@
           <t>2-s2.0-84929402310</t>
         </is>
       </c>
+      <c r="BT21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU21" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -5313,6 +5443,12 @@
           <t>2-s2.0-84929396914</t>
         </is>
       </c>
+      <c r="BT22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU22" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -5528,6 +5664,12 @@
           <t>2-s2.0-84929439501</t>
         </is>
       </c>
+      <c r="BT23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU23" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -5747,6 +5889,12 @@
           <t>2-s2.0-84926071010</t>
         </is>
       </c>
+      <c r="BT24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU24" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -5966,6 +6114,12 @@
           <t>2-s2.0-84907818675</t>
         </is>
       </c>
+      <c r="BT25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU25" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -6185,6 +6339,12 @@
           <t>2-s2.0-84907848610</t>
         </is>
       </c>
+      <c r="BT26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU26" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -6404,6 +6564,12 @@
           <t>2-s2.0-84907820417</t>
         </is>
       </c>
+      <c r="BT27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU27" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -6623,6 +6789,12 @@
           <t>2-s2.0-84907820980</t>
         </is>
       </c>
+      <c r="BT28" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU28" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -6842,6 +7014,12 @@
           <t>2-s2.0-84907817432</t>
         </is>
       </c>
+      <c r="BT29" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU29" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -7065,6 +7243,12 @@
           <t>2-s2.0-84907817004</t>
         </is>
       </c>
+      <c r="BT30" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU30" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -7288,6 +7472,12 @@
           <t>2-s2.0-84907857651</t>
         </is>
       </c>
+      <c r="BT31" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU31" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -7507,6 +7697,12 @@
           <t>2-s2.0-84907811814</t>
         </is>
       </c>
+      <c r="BT32" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU32" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -7726,6 +7922,12 @@
       <c r="BQ33" t="inlineStr"/>
       <c r="BR33" t="inlineStr"/>
       <c r="BS33" t="inlineStr"/>
+      <c r="BT33" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU33" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -7945,6 +8147,12 @@
           <t>2-s2.0-84907813607</t>
         </is>
       </c>
+      <c r="BT34" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU34" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -8164,6 +8372,12 @@
           <t>2-s2.0-84907815294</t>
         </is>
       </c>
+      <c r="BT35" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU35" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -8383,6 +8597,12 @@
           <t>2-s2.0-84907845654</t>
         </is>
       </c>
+      <c r="BT36" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU36" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -8597,6 +8817,12 @@
         <is>
           <t>2-s2.0-84907852038</t>
         </is>
+      </c>
+      <c r="BT37" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU37" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="38">
@@ -8805,6 +9031,12 @@
           <t>2-s2.0-84907809861</t>
         </is>
       </c>
+      <c r="BT38" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU38" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -9020,6 +9252,12 @@
           <t>2-s2.0-84907810012</t>
         </is>
       </c>
+      <c r="BT39" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU39" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -9247,6 +9485,12 @@
           <t>2-s2.0-84907858811</t>
         </is>
       </c>
+      <c r="BT40" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU40" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -9462,6 +9706,12 @@
           <t>2-s2.0-84907853533</t>
         </is>
       </c>
+      <c r="BT41" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU41" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -9680,6 +9930,12 @@
         <is>
           <t>2-s2.0-84907859659</t>
         </is>
+      </c>
+      <c r="BT42" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU42" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="43">
@@ -9892,6 +10148,12 @@
           <t>2-s2.0-84907168797</t>
         </is>
       </c>
+      <c r="BT43" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU43" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -10111,6 +10373,12 @@
           <t>2-s2.0-84907169001</t>
         </is>
       </c>
+      <c r="BT44" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU44" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -10333,6 +10601,12 @@
         <is>
           <t>2-s2.0-84907164421</t>
         </is>
+      </c>
+      <c r="BT45" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU45" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="46">
@@ -10545,6 +10819,12 @@
           <t>2-s2.0-84907168907</t>
         </is>
       </c>
+      <c r="BT46" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU46" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -10764,6 +11044,12 @@
           <t>2-s2.0-84907164595</t>
         </is>
       </c>
+      <c r="BT47" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU47" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -10983,6 +11269,12 @@
           <t>2-s2.0-84907169000</t>
         </is>
       </c>
+      <c r="BT48" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU48" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -11202,6 +11494,12 @@
           <t>2-s2.0-84907168703</t>
         </is>
       </c>
+      <c r="BT49" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU49" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -11420,6 +11718,12 @@
         <is>
           <t>2-s2.0-84907164419</t>
         </is>
+      </c>
+      <c r="BT50" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU50" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="51">
@@ -11628,6 +11932,12 @@
           <t>2-s2.0-84907168999</t>
         </is>
       </c>
+      <c r="BT51" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU51" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -11843,6 +12153,12 @@
           <t>2-s2.0-84907185303</t>
         </is>
       </c>
+      <c r="BT52" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU52" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -12058,6 +12374,12 @@
           <t>2-s2.0-84907185305</t>
         </is>
       </c>
+      <c r="BT53" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU53" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -12273,6 +12595,12 @@
           <t>2-s2.0-84907168908</t>
         </is>
       </c>
+      <c r="BT54" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU54" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -12488,6 +12816,12 @@
           <t>2-s2.0-84907185196</t>
         </is>
       </c>
+      <c r="BT55" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU55" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -12703,6 +13037,12 @@
           <t>2-s2.0-84907168798</t>
         </is>
       </c>
+      <c r="BT56" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU56" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -12918,6 +13258,12 @@
           <t>2-s2.0-84907164597</t>
         </is>
       </c>
+      <c r="BT57" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU57" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -13137,6 +13483,12 @@
           <t>2-s2.0-84907164422</t>
         </is>
       </c>
+      <c r="BT58" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU58" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -13356,6 +13708,12 @@
           <t>2-s2.0-84907168704</t>
         </is>
       </c>
+      <c r="BT59" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU59" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -13575,6 +13933,12 @@
           <t>2-s2.0-84907164423</t>
         </is>
       </c>
+      <c r="BT60" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU60" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -13794,6 +14158,12 @@
           <t>2-s2.0-84907169002</t>
         </is>
       </c>
+      <c r="BT61" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU61" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -14017,6 +14387,12 @@
           <t>2-s2.0-84907185204</t>
         </is>
       </c>
+      <c r="BT62" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU62" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -14236,6 +14612,12 @@
           <t>2-s2.0-84907164598</t>
         </is>
       </c>
+      <c r="BT63" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU63" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -14443,6 +14825,12 @@
       <c r="BQ64" t="inlineStr"/>
       <c r="BR64" t="inlineStr"/>
       <c r="BS64" t="inlineStr"/>
+      <c r="BT64" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU64" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -14658,6 +15046,12 @@
           <t>2-s2.0-84901660500</t>
         </is>
       </c>
+      <c r="BT65" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU65" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -14876,6 +15270,12 @@
         <is>
           <t>2-s2.0-84901649800</t>
         </is>
+      </c>
+      <c r="BT66" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU66" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="67">
@@ -15088,6 +15488,12 @@
           <t>2-s2.0-84901660499</t>
         </is>
       </c>
+      <c r="BT67" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU67" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -15302,6 +15708,12 @@
         <is>
           <t>2-s2.0-84940295138</t>
         </is>
+      </c>
+      <c r="BT68" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU68" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="69">
@@ -15514,6 +15926,12 @@
           <t>2-s2.0-84940223731</t>
         </is>
       </c>
+      <c r="BT69" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU69" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -15725,6 +16143,12 @@
           <t>2-s2.0-84940257628</t>
         </is>
       </c>
+      <c r="BT70" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU70" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -15936,6 +16360,12 @@
           <t>2-s2.0-84940224317</t>
         </is>
       </c>
+      <c r="BT71" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU71" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -16147,6 +16577,12 @@
           <t>2-s2.0-84940289090</t>
         </is>
       </c>
+      <c r="BT72" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU72" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -16366,6 +16802,12 @@
           <t>2-s2.0-84940281688</t>
         </is>
       </c>
+      <c r="BT73" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU73" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -16585,6 +17027,12 @@
           <t>2-s2.0-84940218692</t>
         </is>
       </c>
+      <c r="BT74" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU74" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -16808,6 +17256,12 @@
           <t>2-s2.0-84940285071</t>
         </is>
       </c>
+      <c r="BT75" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU75" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -17031,6 +17485,12 @@
           <t>2-s2.0-84940226191</t>
         </is>
       </c>
+      <c r="BT76" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU76" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -17258,6 +17718,12 @@
           <t>2-s2.0-84940218471</t>
         </is>
       </c>
+      <c r="BT77" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU77" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -17485,6 +17951,12 @@
           <t>2-s2.0-84920280827</t>
         </is>
       </c>
+      <c r="BT78" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU78" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -17704,6 +18176,12 @@
           <t>2-s2.0-84940235293</t>
         </is>
       </c>
+      <c r="BT79" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU79" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -17922,6 +18400,12 @@
         <is>
           <t>2-s2.0-84940274654</t>
         </is>
+      </c>
+      <c r="BT80" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU80" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="81">
@@ -18134,6 +18618,12 @@
           <t>2-s2.0-84940216678</t>
         </is>
       </c>
+      <c r="BT81" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU81" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -18353,6 +18843,12 @@
           <t>2-s2.0-84907940784</t>
         </is>
       </c>
+      <c r="BT82" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU82" t="n">
+        <v>6</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
